--- a/sqat/public/excel/PlantillaPersonas.xlsx
+++ b/sqat/public/excel/PlantillaPersonas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigoalonsodomingu\Desktop\proyectos\Sistema-Gestor-de-Activos\sqat\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E29D716-1999-4492-A230-BE8F6CC2E001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928E650-CE04-4289-9E51-6F745861BD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,12 +90,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -104,7 +119,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -401,10 +416,13 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
